--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1633440.76047715</v>
+        <v>-1635390.986305711</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15410924.29148959</v>
+        <v>15410924.29148958</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.84151207253908</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>100.4522428353254</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>118.994493051312</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>212.7389733439016</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>179.574408816836</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>23.59568114728116</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>30.54110646053125</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>29.85764144541028</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>5.356482718558031</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>44.91827500188562</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>89.30725745073089</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>31.42218700821035</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>127.3497914400551</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>127.7178027211454</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.820165441780437</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>85.32135912422019</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>81.92700929343428</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>42.81113462701816</v>
+        <v>88.76832675740278</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>124.0337626810476</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898677</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.426717132083</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.426717132083</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.161018525332</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2686.198068722728</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2686.198068722728</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2467.563401694791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2213.801616332883</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2213.801616332883</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W2" t="n">
-        <v>1861.032961062768</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.566049107894</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.426717132083</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,22 +4434,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.2840617486069</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W4" t="n">
-        <v>607.9325265788466</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>607.9325265788466</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>607.9325265788466</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1167.455337753612</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C5" t="n">
-        <v>1167.455337753612</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D5" t="n">
-        <v>1167.455337753612</v>
+        <v>660.2405824055588</v>
       </c>
       <c r="E5" t="n">
-        <v>1167.455337753612</v>
+        <v>660.2405824055588</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>653.2950816563554</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>235.3312735545422</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1167.455337753612</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1167.455337753612</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>400.6823320653275</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>253.7923845674171</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574956</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.6669506791649</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.223260609829</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>829.2607436694175</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>829.2607436694175</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>829.2607436694175</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2691.738502413618</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2515.561014727788</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2515.561014727788</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2261.79922936588</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1930.736342022309</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392339</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C10" t="n">
-        <v>257.0633493392339</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D10" t="n">
-        <v>257.0633493392339</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>291.042280278609</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>144.1523327806987</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.836466556557</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1467.176687721326</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1267.256677636879</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1043.471262426384</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V13" t="n">
-        <v>857.3660635912138</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W13" t="n">
-        <v>857.3660635912138</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>857.3660635912138</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.3660635912138</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003439</v>
@@ -5264,25 +5264,25 @@
         <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155876</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,13 +5294,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5309,7 +5309,7 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121729</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>901.6749225845916</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128703</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>738.72199690426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>569.7858139763531</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>419.6691745640173</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>419.6691745640173</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>419.6691745640173</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>251.4938528838379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>101.0758444317812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471189</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344997</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344997</v>
+        <v>447.0175521403264</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.3704617344997</v>
+        <v>226.2249729967963</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5601,10 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>857.5427825698953</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646.9375622247744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>478.0013792968675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>327.8847398845318</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>179.9716463021387</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>179.9716463021387</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>179.9716463021387</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227918</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9271131227918</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X19" t="n">
-        <v>646.9375622247744</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.9375622247744</v>
+        <v>333.8182909469084</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O21" t="n">
-        <v>1841.189502980821</v>
+        <v>2205.048458376742</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>607.426577713243</v>
+        <v>337.3000764349716</v>
       </c>
       <c r="C22" t="n">
-        <v>438.4903947853361</v>
+        <v>337.3000764349716</v>
       </c>
       <c r="D22" t="n">
-        <v>288.3737553730003</v>
+        <v>337.3000764349716</v>
       </c>
       <c r="E22" t="n">
-        <v>140.4606617906072</v>
+        <v>337.3000764349716</v>
       </c>
       <c r="F22" t="n">
-        <v>140.4606617906072</v>
+        <v>337.3000764349716</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="X22" t="n">
-        <v>1009.867621687013</v>
+        <v>558.0926555785018</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.0750425434827</v>
+        <v>337.3000764349716</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6057,31 +6057,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>949.9242162922058</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>949.9242162922058</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>949.9242162922058</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
         <v>394.6863306254957</v>
@@ -6406,7 +6406,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S28" t="n">
         <v>1865.165908942116</v>
@@ -6424,10 +6424,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6643,28 +6643,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,22 +6701,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6871,10 +6871,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108323</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7154,31 +7154,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7190,16 +7190,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>485.4047026089419</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>732.1698305154059</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
         <v>559.344147222967</v>
@@ -7318,34 +7318,34 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,16 +7424,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>28.12263706262996</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>38.86002301950037</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>15.83804904622878</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100642</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>73.53204524670085</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.63689050227261</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>162.01749231047</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>167.528505285279</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>78.54216539558244</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>124.7878518837729</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>52.11417746079194</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>106.5990800224916</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>94.5106210577171</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>66.98681907410185</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.6824338363594</v>
+        <v>77.72524170597481</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>128.1038806427804</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1287047.939633066</v>
+        <v>1287047.939633065</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1297524.835099872</v>
+        <v>1297524.835099871</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1297524.835099871</v>
+        <v>1297524.835099872</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016738</v>
+        <v>77466.06243016743</v>
       </c>
       <c r="C2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="D2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>82104.17698642831</v>
-      </c>
       <c r="E2" t="n">
-        <v>78205.81194754175</v>
+        <v>78205.81194754176</v>
       </c>
       <c r="F2" t="n">
-        <v>78205.81194754172</v>
+        <v>78205.81194754176</v>
       </c>
       <c r="G2" t="n">
+        <v>78205.81194754173</v>
+      </c>
+      <c r="H2" t="n">
         <v>78205.81194754176</v>
       </c>
-      <c r="H2" t="n">
-        <v>78205.81194754175</v>
-      </c>
       <c r="I2" t="n">
-        <v>78205.81194754175</v>
+        <v>78205.81194754173</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642847</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642827</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642827</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642833</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.436047097567694e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963054</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.299178720351534e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.51210371246</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.436047097567694e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600754</v>
+        <v>7916.731656007588</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007566</v>
+        <v>7916.731656007501</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007545</v>
       </c>
       <c r="J4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716805.112749435</v>
+        <v>-716921.0656133414</v>
       </c>
       <c r="C6" t="n">
         <v>-148671.949792902</v>
@@ -26528,40 +26528,40 @@
         <v>-148671.949792902</v>
       </c>
       <c r="E6" t="n">
-        <v>-546858.2821340784</v>
+        <v>-546955.7412600506</v>
       </c>
       <c r="F6" t="n">
-        <v>-21698.24565718244</v>
+        <v>-21795.70478315468</v>
       </c>
       <c r="G6" t="n">
-        <v>-21698.24565718243</v>
+        <v>-21795.70478315456</v>
       </c>
       <c r="H6" t="n">
-        <v>-21698.24565718236</v>
+        <v>-21795.70478315452</v>
       </c>
       <c r="I6" t="n">
-        <v>-21698.24565718237</v>
+        <v>-21795.70478315459</v>
       </c>
       <c r="J6" t="n">
-        <v>-276875.1790272303</v>
+        <v>-276875.1790272304</v>
       </c>
       <c r="K6" t="n">
-        <v>-45946.44773092498</v>
+        <v>-45946.44773092505</v>
       </c>
       <c r="L6" t="n">
-        <v>-45946.44773092495</v>
+        <v>-45946.44773092514</v>
       </c>
       <c r="M6" t="n">
-        <v>-180747.4629647621</v>
+        <v>-180747.4629647622</v>
       </c>
       <c r="N6" t="n">
-        <v>-45946.44773092511</v>
+        <v>-45946.44773092501</v>
       </c>
       <c r="O6" t="n">
         <v>-100451.9598346375</v>
       </c>
       <c r="P6" t="n">
-        <v>-45946.44773092496</v>
+        <v>-45946.44773092511</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,34 +26738,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.623973400439417e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964057</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.623973400439417e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>138.7908712331541</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>269.2788578431436</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>226.5550366661091</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>194.1370723978098</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>144.3483639475212</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>143.6511399513467</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>125.6297823812639</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>377.0184042963011</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>49.12191985625368</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>101.5156876446836</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>78.00254480832002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>1.124691144813651e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28561,16 +28561,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28624,13 +28624,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.045058871959617e-14</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
@@ -32002,16 +32002,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946991</v>
@@ -32026,7 +32026,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
         <v>0.2670576580354892</v>
@@ -32072,25 +32072,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458548</v>
@@ -32099,13 +32099,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,19 +32151,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
@@ -32172,22 +32172,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>338.5470141130963</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>321.2237252606084</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>326.262426096695</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>492.1965505854582</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951384</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,7 +36999,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
         <v>304.3692416502435</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>224.1074838346401</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -37640,7 +37640,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
